--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +443,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +490,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="3">
+      <c r="C12" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -829,10 +847,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -876,28 +894,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3">
+      <c r="A26" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="3">
+      <c r="C26" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -922,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="3">
+      <c r="I28" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1060,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1107,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="3">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1153,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="3">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1262,10 +1280,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1309,28 +1327,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1355,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1493,10 +1511,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="J47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1540,28 +1558,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="3">
+      <c r="A49" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="3">
+      <c r="C49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1586,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="3">
+      <c r="I51" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1695,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1742,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1788,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1926,10 +1944,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="J62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1973,28 +1991,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="3">
+      <c r="C64" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2019,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2128,10 +2146,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="3" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2175,28 +2193,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="3">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="3">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2221,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="3">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="3">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="3">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2330,10 +2348,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="J76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2377,28 +2395,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="3">
+      <c r="C78" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2423,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="3">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="3">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="3">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2532,10 +2550,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2579,28 +2597,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2625,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2734,10 +2752,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2781,28 +2799,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2827,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2936,10 +2954,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2983,28 +3001,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3029,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3138,10 +3156,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3185,28 +3203,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3231,28 +3249,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3340,10 +3358,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3387,28 +3405,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3433,28 +3451,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3571,10 +3589,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="J119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3618,28 +3636,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="A121" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="3">
+      <c r="C121" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3664,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="3">
+      <c r="I123" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3773,10 +3791,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="3" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3820,28 +3838,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="3">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3866,28 +3884,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4004,10 +4022,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4051,28 +4069,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4097,28 +4115,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4264,10 +4282,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4311,28 +4329,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4357,28 +4375,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4466,10 +4484,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4513,28 +4531,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4559,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4668,10 +4686,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4715,28 +4733,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4761,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4888,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4935,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5072,10 +5090,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5119,28 +5137,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5165,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5274,10 +5292,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="3" t="s">
+      <c r="J178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5321,28 +5339,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="3">
+      <c r="A180" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="3">
+      <c r="C180" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5367,28 +5385,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="3">
+      <c r="C182" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="3">
+      <c r="D182" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="3">
+      <c r="I182" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5505,10 +5523,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="3" t="s">
+      <c r="J186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5552,28 +5570,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="3">
+      <c r="A188" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="3">
+      <c r="C188" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5598,28 +5616,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="3">
+      <c r="C190" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="3">
+      <c r="D190" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="3">
+      <c r="I190" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5725,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="3" t="s">
+      <c r="J193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5772,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="3">
+      <c r="A195" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="3">
+      <c r="C195" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5818,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="3">
+      <c r="C197" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="3">
+      <c r="D197" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="3">
+      <c r="I197" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5909,10 +5927,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5956,28 +5974,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6002,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6129,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6176,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6331,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6378,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6533,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6562,28 +6580,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="3">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="3">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6608,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="3">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="3">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="3">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6717,10 +6735,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="3" t="s">
+      <c r="J228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6764,28 +6782,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="3">
+      <c r="A230" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="3">
+      <c r="C230" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6810,28 +6828,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C232" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="3">
+      <c r="D232" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="3">
+      <c r="I232" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6919,10 +6937,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="3" t="s">
+      <c r="J235" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6966,28 +6984,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="3">
+      <c r="A237" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="3">
+      <c r="C237" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7012,28 +7030,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="3">
+      <c r="C239" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="3">
+      <c r="D239" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="3">
+      <c r="I239" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7121,10 +7139,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="3" t="s">
+      <c r="J242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7168,28 +7186,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="3">
+      <c r="A244" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="3">
+      <c r="C244" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7214,28 +7232,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="3">
+      <c r="C246" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="3">
+      <c r="D246" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="3">
+      <c r="I246" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7323,10 +7341,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="3" t="s">
+      <c r="J249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7370,28 +7388,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="3">
+      <c r="A251" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="3">
+      <c r="C251" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7416,28 +7434,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="3">
+      <c r="C253" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="3">
+      <c r="D253" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="3">
+      <c r="I253" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7525,10 +7543,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="3" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7572,28 +7590,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="3">
+      <c r="A258" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="3">
+      <c r="C258" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7618,28 +7636,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="3">
+      <c r="C260" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="3">
+      <c r="D260" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="3">
+      <c r="I260" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7727,10 +7745,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="3" t="s">
+      <c r="J263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7774,28 +7792,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="3">
+      <c r="A265" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="3">
+      <c r="C265" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7820,28 +7838,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="3">
+      <c r="B267" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="3">
+      <c r="C267" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="3">
+      <c r="D267" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="3">
+      <c r="E267" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="3">
+      <c r="F267" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="3">
+      <c r="G267" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="3">
+      <c r="H267" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="3">
+      <c r="I267" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7929,10 +7947,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="3" t="s">
+      <c r="J270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7976,28 +7994,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="3">
+      <c r="A272" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="3">
+      <c r="C272" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8022,28 +8040,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="3">
+      <c r="B274" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="3">
+      <c r="C274" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="3">
+      <c r="D274" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="3">
+      <c r="E274" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="3">
+      <c r="F274" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="3">
+      <c r="G274" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="3">
+      <c r="H274" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="3">
+      <c r="I274" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8131,10 +8149,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="3" t="s">
+      <c r="J277" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8178,28 +8196,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="3">
+      <c r="A279" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="3">
+      <c r="C279" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8224,28 +8242,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="3">
+      <c r="B281" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="3">
+      <c r="C281" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="3">
+      <c r="D281" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="3">
+      <c r="E281" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="3">
+      <c r="F281" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="3">
+      <c r="G281" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="3">
+      <c r="H281" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="3">
+      <c r="I281" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8333,10 +8351,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="3" t="s">
+      <c r="J284" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8380,28 +8398,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="3">
+      <c r="A286" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="3">
+      <c r="C286" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8426,28 +8444,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="3">
+      <c r="C288" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="3">
+      <c r="D288" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="3">
+      <c r="I288" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8535,10 +8553,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="3" t="s">
+      <c r="J291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8582,28 +8600,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="3">
+      <c r="A293" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="3">
+      <c r="C293" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8628,28 +8646,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="3">
+      <c r="B295" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="3">
+      <c r="C295" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="3">
+      <c r="D295" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="3">
+      <c r="E295" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="3">
+      <c r="F295" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="3">
+      <c r="G295" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="3">
+      <c r="H295" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="3">
+      <c r="I295" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8737,10 +8755,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="3" t="s">
+      <c r="J298" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8784,28 +8802,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="3">
+      <c r="A300" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="3">
+      <c r="C300" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8830,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="3">
+      <c r="B302" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="3">
+      <c r="C302" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="3">
+      <c r="D302" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="3">
+      <c r="E302" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="3">
+      <c r="F302" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="3">
+      <c r="G302" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="3">
+      <c r="H302" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="3">
+      <c r="I302" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8939,10 +8957,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="3" t="s">
+      <c r="J305" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8986,28 +9004,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="3">
+      <c r="A307" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="3">
+      <c r="C307" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9032,28 +9050,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="3">
+      <c r="C309" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="3">
+      <c r="D309" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="3">
+      <c r="I309" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9141,10 +9159,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="3" t="s">
+      <c r="J312" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9188,28 +9206,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="3">
+      <c r="A314" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="3">
+      <c r="B314" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="3">
+      <c r="C314" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="3">
+      <c r="E314" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="3">
+      <c r="F314" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="3">
+      <c r="G314" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="3">
+      <c r="H314" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9234,28 +9252,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="3">
+      <c r="B316" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="3">
+      <c r="C316" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="3">
+      <c r="D316" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="3">
+      <c r="E316" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="3">
+      <c r="F316" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="3">
+      <c r="G316" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="3">
+      <c r="H316" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="3">
+      <c r="I316" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9343,10 +9361,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="3" t="s">
+      <c r="J319" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9390,28 +9408,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="3">
+      <c r="A321" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="3">
+      <c r="B321" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="3">
+      <c r="C321" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="3">
+      <c r="E321" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="3">
+      <c r="F321" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="3">
+      <c r="G321" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="3">
+      <c r="H321" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9436,28 +9454,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="3">
+      <c r="B323" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="3">
+      <c r="C323" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="3">
+      <c r="D323" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="3">
+      <c r="E323" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="3">
+      <c r="F323" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="3">
+      <c r="G323" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="3">
+      <c r="H323" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="3">
+      <c r="I323" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9545,10 +9563,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="3" t="s">
+      <c r="J326" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11564" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -443,10 +491,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -490,28 +538,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="6">
+      <c r="C12" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -536,28 +584,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="6">
+      <c r="C14" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="6">
+      <c r="D14" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="6">
+      <c r="F14" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="6">
+      <c r="G14" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="6">
+      <c r="H14" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="6">
+      <c r="I14" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -645,10 +693,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -692,28 +740,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="6">
+      <c r="C19" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="6">
+      <c r="H19" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="6">
+      <c r="B21" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="6">
+      <c r="C21" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="6">
+      <c r="D21" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="6">
+      <c r="E21" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="6">
+      <c r="F21" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="6">
+      <c r="G21" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="6">
+      <c r="H21" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="6">
+      <c r="I21" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -847,10 +895,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -894,28 +942,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="6">
+      <c r="A26" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="6">
+      <c r="C26" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="6">
+      <c r="E26" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="6">
+      <c r="F26" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="6">
+      <c r="G26" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="6">
+      <c r="H26" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -940,28 +988,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="6">
+      <c r="B28" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="6">
+      <c r="C28" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="6">
+      <c r="D28" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="6">
+      <c r="E28" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="6">
+      <c r="F28" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="6">
+      <c r="G28" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="6">
+      <c r="H28" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="6">
+      <c r="I28" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1078,10 +1126,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1125,28 +1173,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="6">
+      <c r="A34" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="6">
+      <c r="B34" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="6">
+      <c r="C34" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="6">
+      <c r="E34" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="6">
+      <c r="F34" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="6">
+      <c r="G34" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="6">
+      <c r="H34" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1171,28 +1219,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="6">
+      <c r="B36" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="6">
+      <c r="C36" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="6">
+      <c r="D36" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="6">
+      <c r="E36" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="6">
+      <c r="F36" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="6">
+      <c r="G36" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="6">
+      <c r="H36" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="6">
+      <c r="I36" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1280,10 +1328,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="J39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1327,28 +1375,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="6">
+      <c r="A41" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="6">
+      <c r="C41" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="6">
+      <c r="E41" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="6">
+      <c r="F41" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="6">
+      <c r="G41" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="6">
+      <c r="H41" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="6">
+      <c r="B43" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="6">
+      <c r="C43" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="6">
+      <c r="D43" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="6">
+      <c r="E43" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="6">
+      <c r="F43" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="6">
+      <c r="G43" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="6">
+      <c r="H43" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="6">
+      <c r="I43" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1511,10 +1559,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="6" t="s">
+      <c r="J47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1558,28 +1606,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="6">
+      <c r="A49" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="6">
+      <c r="B49" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="6">
+      <c r="C49" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="6">
+      <c r="E49" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="6">
+      <c r="F49" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="6">
+      <c r="G49" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="6">
+      <c r="H49" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1604,28 +1652,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="6">
+      <c r="B51" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="6">
+      <c r="C51" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="6">
+      <c r="D51" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="6">
+      <c r="E51" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="6">
+      <c r="F51" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="6">
+      <c r="G51" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="6">
+      <c r="H51" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="6">
+      <c r="I51" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1713,10 +1761,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="6" t="s">
+      <c r="J54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1760,28 +1808,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="6">
+      <c r="A56" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="6">
+      <c r="B56" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="6">
+      <c r="C56" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="6">
+      <c r="E56" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="6">
+      <c r="F56" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="6">
+      <c r="G56" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="6">
+      <c r="H56" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="6">
+      <c r="B58" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="6">
+      <c r="C58" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="6">
+      <c r="D58" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="6">
+      <c r="E58" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="6">
+      <c r="F58" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="6">
+      <c r="G58" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="6">
+      <c r="H58" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="6">
+      <c r="I58" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1944,10 +1992,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="6" t="s">
+      <c r="J62" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1991,28 +2039,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="6">
+      <c r="A64" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="6">
+      <c r="B64" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="6">
+      <c r="C64" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="6">
+      <c r="E64" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="6">
+      <c r="F64" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="6">
+      <c r="G64" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="6">
+      <c r="H64" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="6">
+      <c r="B66" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="6">
+      <c r="C66" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="6">
+      <c r="D66" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="6">
+      <c r="E66" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="6">
+      <c r="F66" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="6">
+      <c r="G66" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="6">
+      <c r="H66" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="6">
+      <c r="I66" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2146,10 +2194,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="6" t="s">
+      <c r="J69" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2193,28 +2241,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="6">
+      <c r="A71" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="6">
+      <c r="B71" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="6">
+      <c r="C71" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="6">
+      <c r="E71" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="6">
+      <c r="F71" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="6">
+      <c r="G71" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="6">
+      <c r="H71" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2239,28 +2287,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="6">
+      <c r="B73" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="6">
+      <c r="C73" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="6">
+      <c r="D73" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="6">
+      <c r="E73" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="6">
+      <c r="F73" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="6">
+      <c r="G73" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="6">
+      <c r="H73" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="6">
+      <c r="I73" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2348,10 +2396,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="6" t="s">
+      <c r="J76" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2395,28 +2443,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="6">
+      <c r="A78" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="6">
+      <c r="B78" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="6">
+      <c r="C78" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="6">
+      <c r="E78" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="6">
+      <c r="F78" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="6">
+      <c r="G78" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="6">
+      <c r="H78" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2441,28 +2489,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="6">
+      <c r="B80" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="6">
+      <c r="C80" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="6">
+      <c r="D80" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="6">
+      <c r="E80" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="6">
+      <c r="F80" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="6">
+      <c r="G80" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="6">
+      <c r="H80" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="6">
+      <c r="I80" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2550,10 +2598,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="6" t="s">
+      <c r="J83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2597,28 +2645,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="6">
+      <c r="A85" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="6">
+      <c r="B85" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="6">
+      <c r="C85" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="6">
+      <c r="E85" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="6">
+      <c r="F85" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="6">
+      <c r="G85" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="6">
+      <c r="H85" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="6">
+      <c r="B87" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="6">
+      <c r="C87" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="6">
+      <c r="D87" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="6">
+      <c r="E87" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="6">
+      <c r="G87" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="6">
+      <c r="H87" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="6">
+      <c r="I87" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2752,10 +2800,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="6" t="s">
+      <c r="J90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2799,28 +2847,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="6">
+      <c r="A92" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="6">
+      <c r="B92" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="6">
+      <c r="C92" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="6">
+      <c r="E92" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="6">
+      <c r="F92" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="6">
+      <c r="G92" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="6">
+      <c r="H92" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2845,28 +2893,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="6">
+      <c r="B94" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="6">
+      <c r="C94" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="6">
+      <c r="D94" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="6">
+      <c r="E94" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="6">
+      <c r="G94" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="6">
+      <c r="H94" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="6">
+      <c r="I94" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2954,10 +3002,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="6" t="s">
+      <c r="J97" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3001,28 +3049,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="6">
+      <c r="A99" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="6">
+      <c r="B99" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="6">
+      <c r="C99" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="6">
+      <c r="E99" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="6">
+      <c r="F99" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="6">
+      <c r="G99" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="6">
+      <c r="H99" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3047,28 +3095,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="6">
+      <c r="B101" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="6">
+      <c r="C101" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="6">
+      <c r="D101" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="6">
+      <c r="E101" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="6">
+      <c r="F101" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="6">
+      <c r="G101" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="6">
+      <c r="H101" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="6">
+      <c r="I101" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3156,10 +3204,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="6" t="s">
+      <c r="J104" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3203,28 +3251,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="6">
+      <c r="A106" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="6">
+      <c r="B106" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="6">
+      <c r="C106" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="6">
+      <c r="E106" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="6">
+      <c r="F106" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="6">
+      <c r="G106" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="6">
+      <c r="H106" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3249,28 +3297,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="6">
+      <c r="B108" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="6">
+      <c r="C108" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="6">
+      <c r="D108" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="6">
+      <c r="E108" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="6">
+      <c r="F108" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="6">
+      <c r="G108" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="6">
+      <c r="H108" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="6">
+      <c r="I108" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3358,10 +3406,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="6" t="s">
+      <c r="J111" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3405,28 +3453,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="6">
+      <c r="A113" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="6">
+      <c r="B113" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="6">
+      <c r="C113" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="6">
+      <c r="E113" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="6">
+      <c r="F113" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="6">
+      <c r="G113" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="6">
+      <c r="H113" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3451,28 +3499,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="6">
+      <c r="B115" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="6">
+      <c r="C115" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="6">
+      <c r="D115" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="6">
+      <c r="E115" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="6">
+      <c r="F115" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="6">
+      <c r="G115" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="6">
+      <c r="H115" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="6">
+      <c r="I115" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3589,10 +3637,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="6" t="s">
+      <c r="J119" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3636,28 +3684,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="6">
+      <c r="A121" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="6">
+      <c r="B121" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="6">
+      <c r="C121" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="6">
+      <c r="E121" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="6">
+      <c r="F121" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="6">
+      <c r="G121" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="6">
+      <c r="H121" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3682,28 +3730,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="6">
+      <c r="B123" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="6">
+      <c r="C123" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="6">
+      <c r="D123" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="6">
+      <c r="E123" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="6">
+      <c r="F123" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="6">
+      <c r="G123" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="6">
+      <c r="H123" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="6">
+      <c r="I123" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3791,10 +3839,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="6" t="s">
+      <c r="J126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3838,28 +3886,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="6">
+      <c r="A128" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="6">
+      <c r="B128" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="6">
+      <c r="C128" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="6">
+      <c r="E128" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="6">
+      <c r="F128" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="6">
+      <c r="G128" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="6">
+      <c r="H128" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3884,28 +3932,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="6">
+      <c r="B130" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="6">
+      <c r="C130" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="6">
+      <c r="D130" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="6">
+      <c r="E130" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="6">
+      <c r="F130" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="6">
+      <c r="G130" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="6">
+      <c r="H130" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="6">
+      <c r="I130" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4022,10 +4070,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="6" t="s">
+      <c r="J134" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4069,28 +4117,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="6">
+      <c r="A136" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="6">
+      <c r="B136" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="6">
+      <c r="C136" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="6">
+      <c r="E136" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="6">
+      <c r="F136" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="6">
+      <c r="G136" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="6">
+      <c r="H136" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4115,28 +4163,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="6">
+      <c r="B138" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="6">
+      <c r="C138" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="6">
+      <c r="D138" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="6">
+      <c r="E138" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="6">
+      <c r="F138" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="6">
+      <c r="G138" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="6">
+      <c r="H138" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="6">
+      <c r="I138" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4282,10 +4330,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="6" t="s">
+      <c r="J143" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4329,28 +4377,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="6">
+      <c r="A145" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="6">
+      <c r="B145" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="6">
+      <c r="C145" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="6">
+      <c r="E145" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="6">
+      <c r="G145" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="6">
+      <c r="H145" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4375,28 +4423,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="6">
+      <c r="B147" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="6">
+      <c r="C147" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="6">
+      <c r="D147" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="6">
+      <c r="E147" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="6">
+      <c r="F147" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="6">
+      <c r="G147" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="6">
+      <c r="H147" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="6">
+      <c r="I147" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4484,10 +4532,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="6" t="s">
+      <c r="J150" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4531,28 +4579,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="6">
+      <c r="A152" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="6">
+      <c r="B152" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="6">
+      <c r="C152" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="6">
+      <c r="E152" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="6">
+      <c r="F152" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="6">
+      <c r="G152" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="6">
+      <c r="H152" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4577,28 +4625,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="6">
+      <c r="B154" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="6">
+      <c r="C154" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="6">
+      <c r="D154" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="6">
+      <c r="E154" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="6">
+      <c r="F154" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="6">
+      <c r="G154" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="6">
+      <c r="H154" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="6">
+      <c r="I154" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4686,10 +4734,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="6" t="s">
+      <c r="J157" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4733,28 +4781,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="6">
+      <c r="A159" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="6">
+      <c r="B159" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="6">
+      <c r="C159" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="6">
+      <c r="E159" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="6">
+      <c r="F159" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="6">
+      <c r="G159" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="6">
+      <c r="H159" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4779,28 +4827,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="6">
+      <c r="B161" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="6">
+      <c r="C161" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="6">
+      <c r="D161" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="6">
+      <c r="E161" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="6">
+      <c r="F161" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="6">
+      <c r="G161" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="6">
+      <c r="H161" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="6">
+      <c r="I161" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4888,10 +4936,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="6" t="s">
+      <c r="J164" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4935,28 +4983,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="6">
+      <c r="A166" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="6">
+      <c r="B166" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="6">
+      <c r="C166" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="6">
+      <c r="E166" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="6">
+      <c r="F166" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="6">
+      <c r="G166" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="6">
+      <c r="H166" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4981,28 +5029,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="6">
+      <c r="B168" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="6">
+      <c r="C168" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="6">
+      <c r="D168" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="6">
+      <c r="E168" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="6">
+      <c r="F168" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="6">
+      <c r="G168" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="6">
+      <c r="H168" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="6">
+      <c r="I168" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5090,10 +5138,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="6" t="s">
+      <c r="J171" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5137,28 +5185,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="6">
+      <c r="A173" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="6">
+      <c r="B173" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="6">
+      <c r="C173" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="6">
+      <c r="E173" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="6">
+      <c r="F173" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="6">
+      <c r="G173" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="6">
+      <c r="H173" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5183,28 +5231,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="6">
+      <c r="B175" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="6">
+      <c r="C175" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="6">
+      <c r="D175" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="6">
+      <c r="E175" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="6">
+      <c r="F175" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="6">
+      <c r="G175" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="6">
+      <c r="H175" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="6">
+      <c r="I175" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5292,10 +5340,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="6" t="s">
+      <c r="J178" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5339,28 +5387,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="6">
+      <c r="A180" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="6">
+      <c r="B180" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="6">
+      <c r="C180" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="6">
+      <c r="E180" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="6">
+      <c r="F180" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="6">
+      <c r="G180" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="6">
+      <c r="H180" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5385,28 +5433,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="6">
+      <c r="B182" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="6">
+      <c r="C182" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="6">
+      <c r="D182" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="6">
+      <c r="E182" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="6">
+      <c r="F182" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="6">
+      <c r="G182" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="6">
+      <c r="H182" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="6">
+      <c r="I182" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5523,10 +5571,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="6" t="s">
+      <c r="J186" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5570,28 +5618,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="6">
+      <c r="A188" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="6">
+      <c r="B188" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="6">
+      <c r="C188" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="6">
+      <c r="E188" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="6">
+      <c r="F188" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="6">
+      <c r="G188" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="6">
+      <c r="H188" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5616,28 +5664,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="6">
+      <c r="B190" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="6">
+      <c r="C190" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="6">
+      <c r="D190" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="6">
+      <c r="E190" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="6">
+      <c r="F190" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="6">
+      <c r="G190" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="6">
+      <c r="H190" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="6">
+      <c r="I190" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5725,10 +5773,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="6" t="s">
+      <c r="J193" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5772,28 +5820,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="6">
+      <c r="A195" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="6">
+      <c r="B195" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="6">
+      <c r="C195" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="6">
+      <c r="E195" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="6">
+      <c r="F195" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="6">
+      <c r="G195" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="6">
+      <c r="H195" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5818,28 +5866,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="6">
+      <c r="B197" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="6">
+      <c r="C197" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="6">
+      <c r="D197" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="6">
+      <c r="E197" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="6">
+      <c r="F197" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="6">
+      <c r="G197" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="6">
+      <c r="H197" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="6">
+      <c r="I197" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5927,10 +5975,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="6" t="s">
+      <c r="J200" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5974,28 +6022,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="6">
+      <c r="A202" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="6">
+      <c r="B202" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="6">
+      <c r="C202" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="6">
+      <c r="E202" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="6">
+      <c r="F202" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="6">
+      <c r="G202" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="6">
+      <c r="H202" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6020,28 +6068,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="6">
+      <c r="B204" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="6">
+      <c r="C204" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="6">
+      <c r="D204" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="6">
+      <c r="E204" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="6">
+      <c r="F204" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="6">
+      <c r="G204" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="6">
+      <c r="H204" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="6">
+      <c r="I204" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6129,10 +6177,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="6" t="s">
+      <c r="J207" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6176,28 +6224,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="6">
+      <c r="A209" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="6">
+      <c r="B209" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="6">
+      <c r="C209" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="6">
+      <c r="E209" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="6">
+      <c r="F209" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="6">
+      <c r="G209" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="6">
+      <c r="H209" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6222,28 +6270,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="6">
+      <c r="B211" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="6">
+      <c r="C211" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="6">
+      <c r="D211" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="6">
+      <c r="E211" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="6">
+      <c r="F211" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="6">
+      <c r="G211" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="6">
+      <c r="H211" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="6">
+      <c r="I211" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6331,10 +6379,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="6" t="s">
+      <c r="J214" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6378,28 +6426,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="6">
+      <c r="A216" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="6">
+      <c r="B216" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="6">
+      <c r="C216" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="6">
+      <c r="E216" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="6">
+      <c r="F216" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="6">
+      <c r="G216" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="6">
+      <c r="H216" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6424,28 +6472,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="6">
+      <c r="B218" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="6">
+      <c r="C218" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="6">
+      <c r="D218" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="6">
+      <c r="E218" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="6">
+      <c r="F218" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="6">
+      <c r="G218" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="6">
+      <c r="H218" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="6">
+      <c r="I218" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6533,10 +6581,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6580,28 +6628,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="6">
+      <c r="A223" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="6">
+      <c r="B223" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="6">
+      <c r="C223" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="6">
+      <c r="E223" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="6">
+      <c r="F223" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="6">
+      <c r="G223" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="6">
+      <c r="H223" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6626,28 +6674,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="6">
+      <c r="B225" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="6">
+      <c r="C225" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="6">
+      <c r="D225" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="6">
+      <c r="E225" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="6">
+      <c r="F225" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="6">
+      <c r="G225" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="6">
+      <c r="H225" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="6">
+      <c r="I225" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6735,10 +6783,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="6" t="s">
+      <c r="J228" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6782,28 +6830,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="6">
+      <c r="A230" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="6">
+      <c r="B230" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="6">
+      <c r="C230" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="6">
+      <c r="E230" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="6">
+      <c r="F230" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="6">
+      <c r="G230" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="6">
+      <c r="H230" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6828,28 +6876,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="6">
+      <c r="B232" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="6">
+      <c r="C232" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="6">
+      <c r="D232" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="6">
+      <c r="E232" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="6">
+      <c r="F232" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="6">
+      <c r="G232" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="6">
+      <c r="H232" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="6">
+      <c r="I232" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6937,10 +6985,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="6" t="s">
+      <c r="J235" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6984,28 +7032,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="6">
+      <c r="A237" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="6">
+      <c r="B237" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="6">
+      <c r="C237" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="6">
+      <c r="E237" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="6">
+      <c r="F237" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="6">
+      <c r="G237" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="6">
+      <c r="H237" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7030,28 +7078,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="6">
+      <c r="B239" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="6">
+      <c r="C239" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="6">
+      <c r="D239" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="6">
+      <c r="E239" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="6">
+      <c r="F239" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="6">
+      <c r="G239" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="6">
+      <c r="H239" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="6">
+      <c r="I239" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7139,10 +7187,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="6" t="s">
+      <c r="J242" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7186,28 +7234,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="6">
+      <c r="A244" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="6">
+      <c r="B244" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="6">
+      <c r="C244" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="6">
+      <c r="E244" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="6">
+      <c r="F244" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="6">
+      <c r="G244" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="6">
+      <c r="H244" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7232,28 +7280,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="6">
+      <c r="B246" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="6">
+      <c r="C246" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="6">
+      <c r="D246" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="6">
+      <c r="E246" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="6">
+      <c r="F246" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="6">
+      <c r="G246" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="6">
+      <c r="H246" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="6">
+      <c r="I246" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7341,10 +7389,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="6" t="s">
+      <c r="J249" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7388,28 +7436,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="6">
+      <c r="A251" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="6">
+      <c r="B251" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="6">
+      <c r="C251" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="6">
+      <c r="E251" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="6">
+      <c r="F251" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="6">
+      <c r="G251" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="6">
+      <c r="H251" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7434,28 +7482,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="6">
+      <c r="B253" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="6">
+      <c r="C253" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="6">
+      <c r="D253" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="6">
+      <c r="E253" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="6">
+      <c r="F253" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="6">
+      <c r="G253" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="6">
+      <c r="H253" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="6">
+      <c r="I253" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7543,10 +7591,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="6" t="s">
+      <c r="J256" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7590,28 +7638,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="6">
+      <c r="A258" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="6">
+      <c r="B258" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="6">
+      <c r="C258" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="6">
+      <c r="E258" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="6">
+      <c r="F258" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="6">
+      <c r="G258" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="6">
+      <c r="H258" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7636,28 +7684,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="6">
+      <c r="B260" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="6">
+      <c r="C260" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="6">
+      <c r="D260" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="6">
+      <c r="E260" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="6">
+      <c r="F260" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="6">
+      <c r="G260" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="6">
+      <c r="H260" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="6">
+      <c r="I260" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7745,10 +7793,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="6" t="s">
+      <c r="J263" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7792,28 +7840,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="6">
+      <c r="A265" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="6">
+      <c r="B265" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="6">
+      <c r="C265" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="6">
+      <c r="E265" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="6">
+      <c r="F265" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="6">
+      <c r="G265" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="6">
+      <c r="H265" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7838,28 +7886,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="6">
+      <c r="B267" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="6">
+      <c r="C267" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="6">
+      <c r="D267" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="6">
+      <c r="E267" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="6">
+      <c r="F267" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="6">
+      <c r="G267" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="6">
+      <c r="H267" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="6">
+      <c r="I267" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7947,10 +7995,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="6" t="s">
+      <c r="J270" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7994,28 +8042,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="6">
+      <c r="A272" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="6">
+      <c r="B272" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="6">
+      <c r="C272" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="6">
+      <c r="E272" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="6">
+      <c r="F272" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="6">
+      <c r="G272" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="6">
+      <c r="H272" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8040,28 +8088,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="6">
+      <c r="B274" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="6">
+      <c r="C274" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="6">
+      <c r="D274" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="6">
+      <c r="E274" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="6">
+      <c r="F274" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="6">
+      <c r="G274" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="6">
+      <c r="H274" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="6">
+      <c r="I274" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8149,10 +8197,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="6" t="s">
+      <c r="J277" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8196,28 +8244,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="6">
+      <c r="A279" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="6">
+      <c r="B279" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="6">
+      <c r="C279" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="6">
+      <c r="E279" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="6">
+      <c r="F279" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="6">
+      <c r="G279" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="6">
+      <c r="H279" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8242,28 +8290,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="6">
+      <c r="B281" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="6">
+      <c r="C281" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="6">
+      <c r="D281" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="6">
+      <c r="E281" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="6">
+      <c r="F281" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="6">
+      <c r="G281" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="6">
+      <c r="H281" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="6">
+      <c r="I281" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8351,10 +8399,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="6" t="s">
+      <c r="J284" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8398,28 +8446,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="6">
+      <c r="A286" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="6">
+      <c r="B286" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="6">
+      <c r="C286" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="6">
+      <c r="E286" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="6">
+      <c r="F286" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="6">
+      <c r="G286" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="6">
+      <c r="H286" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8444,28 +8492,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="6">
+      <c r="B288" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="6">
+      <c r="C288" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="6">
+      <c r="D288" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="6">
+      <c r="E288" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="6">
+      <c r="F288" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="6">
+      <c r="G288" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="6">
+      <c r="H288" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="6">
+      <c r="I288" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8553,10 +8601,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="6" t="s">
+      <c r="J291" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8600,28 +8648,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="6">
+      <c r="A293" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="6">
+      <c r="B293" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="6">
+      <c r="C293" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="6">
+      <c r="E293" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="6">
+      <c r="F293" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="6">
+      <c r="G293" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="6">
+      <c r="H293" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8646,28 +8694,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="6">
+      <c r="B295" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="6">
+      <c r="C295" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="6">
+      <c r="D295" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="6">
+      <c r="E295" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="6">
+      <c r="F295" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="6">
+      <c r="G295" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="6">
+      <c r="H295" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="6">
+      <c r="I295" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8755,10 +8803,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="6" t="s">
+      <c r="J298" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8802,28 +8850,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="6">
+      <c r="A300" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="6">
+      <c r="B300" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="6">
+      <c r="C300" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="6">
+      <c r="E300" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="6">
+      <c r="F300" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="6">
+      <c r="G300" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="6">
+      <c r="H300" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8848,28 +8896,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="6">
+      <c r="B302" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="6">
+      <c r="C302" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="6">
+      <c r="D302" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="6">
+      <c r="E302" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="6">
+      <c r="F302" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="6">
+      <c r="G302" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="6">
+      <c r="H302" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="6">
+      <c r="I302" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8957,10 +9005,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="6" t="s">
+      <c r="J305" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9004,28 +9052,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="6">
+      <c r="A307" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="6">
+      <c r="B307" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="6">
+      <c r="C307" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="6">
+      <c r="E307" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="6">
+      <c r="F307" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="6">
+      <c r="G307" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="6">
+      <c r="H307" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9050,28 +9098,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="6">
+      <c r="B309" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="6">
+      <c r="C309" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="6">
+      <c r="D309" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="6">
+      <c r="E309" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="6">
+      <c r="F309" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="6">
+      <c r="G309" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="6">
+      <c r="H309" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="6">
+      <c r="I309" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9159,10 +9207,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="6" t="s">
+      <c r="J312" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9206,28 +9254,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="6">
+      <c r="A314" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="6">
+      <c r="B314" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="6">
+      <c r="C314" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="6">
+      <c r="E314" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="6">
+      <c r="F314" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="6">
+      <c r="G314" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="6">
+      <c r="H314" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9252,28 +9300,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="6">
+      <c r="B316" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="6">
+      <c r="C316" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="6">
+      <c r="D316" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="6">
+      <c r="E316" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="6">
+      <c r="F316" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="6">
+      <c r="G316" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="6">
+      <c r="H316" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="6">
+      <c r="I316" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9361,10 +9409,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="6" t="s">
+      <c r="J319" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9408,28 +9456,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="6">
+      <c r="A321" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="6">
+      <c r="B321" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="6">
+      <c r="C321" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="6">
+      <c r="E321" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="6">
+      <c r="F321" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="6">
+      <c r="G321" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="6">
+      <c r="H321" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9454,28 +9502,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="6">
+      <c r="B323" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="6">
+      <c r="C323" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="6">
+      <c r="D323" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="6">
+      <c r="E323" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="6">
+      <c r="F323" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="6">
+      <c r="G323" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="6">
+      <c r="H323" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="6">
+      <c r="I323" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9563,10 +9611,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="6" t="s">
+      <c r="J326" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11564" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15694" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -491,10 +521,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -538,28 +568,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="14">
+      <c r="A12" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="14">
+      <c r="C12" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -584,28 +614,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="14">
+      <c r="B14" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="14">
+      <c r="C14" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="14">
+      <c r="D14" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="14">
+      <c r="E14" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="14">
+      <c r="F14" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="14">
+      <c r="G14" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="14">
+      <c r="H14" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="14">
+      <c r="I14" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -693,10 +723,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -740,28 +770,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="14">
+      <c r="A19" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="14">
+      <c r="B19" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="14">
+      <c r="C19" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="14">
+      <c r="E19" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="14">
+      <c r="F19" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="14">
+      <c r="G19" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="H19" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -786,28 +816,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="14">
+      <c r="B21" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="14">
+      <c r="C21" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="14">
+      <c r="D21" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="14">
+      <c r="E21" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="14">
+      <c r="F21" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="14">
+      <c r="G21" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="14">
+      <c r="H21" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="14">
+      <c r="I21" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -895,10 +925,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="14" t="s">
+      <c r="J24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -942,28 +972,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="14">
+      <c r="A26" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="14">
+      <c r="B26" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="14">
+      <c r="C26" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="14">
+      <c r="E26" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="14">
+      <c r="F26" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="14">
+      <c r="H26" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -988,28 +1018,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="14">
+      <c r="B28" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="14">
+      <c r="C28" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="14">
+      <c r="D28" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="14">
+      <c r="E28" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="14">
+      <c r="F28" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="14">
+      <c r="G28" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="14">
+      <c r="H28" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="14">
+      <c r="I28" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1126,10 +1156,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1173,28 +1203,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="14">
+      <c r="A34" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="14">
+      <c r="B34" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="14">
+      <c r="C34" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="14">
+      <c r="E34" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="14">
+      <c r="F34" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="14">
+      <c r="G34" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="14">
+      <c r="H34" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1219,28 +1249,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="14">
+      <c r="B36" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="14">
+      <c r="C36" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="14">
+      <c r="D36" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="14">
+      <c r="E36" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="14">
+      <c r="F36" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="14">
+      <c r="G36" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="14">
+      <c r="H36" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="14">
+      <c r="I36" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1328,10 +1358,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="J39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1375,28 +1405,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="14">
+      <c r="A41" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="14">
+      <c r="B41" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="14">
+      <c r="C41" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="14">
+      <c r="E41" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="14">
+      <c r="F41" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="14">
+      <c r="G41" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="14">
+      <c r="H41" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1421,28 +1451,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="14">
+      <c r="B43" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="14">
+      <c r="C43" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="14">
+      <c r="D43" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="14">
+      <c r="E43" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="14">
+      <c r="F43" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="14">
+      <c r="G43" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="14">
+      <c r="H43" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="14">
+      <c r="I43" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1559,10 +1589,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="14" t="s">
+      <c r="J47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1606,28 +1636,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="14">
+      <c r="A49" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="14">
+      <c r="B49" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="14">
+      <c r="C49" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="14">
+      <c r="E49" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="14">
+      <c r="F49" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="14">
+      <c r="G49" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="14">
+      <c r="H49" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1652,28 +1682,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="14">
+      <c r="B51" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="14">
+      <c r="C51" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="14">
+      <c r="D51" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="14">
+      <c r="E51" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="14">
+      <c r="F51" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="14">
+      <c r="G51" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="14">
+      <c r="H51" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="14">
+      <c r="I51" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1761,10 +1791,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1808,28 +1838,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="14">
+      <c r="A56" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="14">
+      <c r="B56" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="14">
+      <c r="C56" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="14">
+      <c r="E56" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="14">
+      <c r="F56" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="14">
+      <c r="G56" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="14">
+      <c r="H56" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1854,28 +1884,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="14">
+      <c r="B58" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="14">
+      <c r="C58" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="14">
+      <c r="D58" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="14">
+      <c r="E58" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="14">
+      <c r="F58" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="14">
+      <c r="G58" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="14">
+      <c r="H58" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="14">
+      <c r="I58" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1992,10 +2022,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="14" t="s">
+      <c r="J62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2039,28 +2069,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="14">
+      <c r="A64" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="14">
+      <c r="B64" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="14">
+      <c r="C64" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="14">
+      <c r="E64" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="14">
+      <c r="F64" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="14">
+      <c r="G64" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="14">
+      <c r="H64" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2085,28 +2115,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="14">
+      <c r="B66" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="14">
+      <c r="C66" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="14">
+      <c r="D66" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="14">
+      <c r="E66" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="14">
+      <c r="F66" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="14">
+      <c r="G66" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="14">
+      <c r="H66" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="14">
+      <c r="I66" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2194,10 +2224,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="14" t="s">
+      <c r="J69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2241,28 +2271,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="14">
+      <c r="A71" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="14">
+      <c r="B71" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="14">
+      <c r="C71" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="14">
+      <c r="E71" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="14">
+      <c r="F71" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="14">
+      <c r="G71" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="14">
+      <c r="H71" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2287,28 +2317,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="14">
+      <c r="B73" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="14">
+      <c r="C73" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="14">
+      <c r="D73" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="14">
+      <c r="E73" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="14">
+      <c r="F73" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="14">
+      <c r="G73" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="14">
+      <c r="H73" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="14">
+      <c r="I73" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2396,10 +2426,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="14" t="s">
+      <c r="J76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2443,28 +2473,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="14">
+      <c r="A78" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="14">
+      <c r="B78" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="14">
+      <c r="C78" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="14">
+      <c r="E78" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="14">
+      <c r="F78" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="14">
+      <c r="G78" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="14">
+      <c r="H78" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2489,28 +2519,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="14">
+      <c r="B80" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="14">
+      <c r="C80" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="14">
+      <c r="D80" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="14">
+      <c r="E80" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="14">
+      <c r="F80" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="14">
+      <c r="G80" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="14">
+      <c r="H80" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="14">
+      <c r="I80" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2598,10 +2628,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="14" t="s">
+      <c r="J83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2645,28 +2675,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="14">
+      <c r="A85" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="14">
+      <c r="B85" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="14">
+      <c r="C85" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="14">
+      <c r="E85" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="14">
+      <c r="F85" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="14">
+      <c r="G85" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="14">
+      <c r="H85" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2691,28 +2721,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="14">
+      <c r="B87" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="14">
+      <c r="C87" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="14">
+      <c r="D87" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="14">
+      <c r="E87" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="14">
+      <c r="F87" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="14">
+      <c r="G87" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="14">
+      <c r="H87" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="14">
+      <c r="I87" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2800,10 +2830,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="14" t="s">
+      <c r="J90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2847,28 +2877,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="14">
+      <c r="A92" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="14">
+      <c r="B92" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="14">
+      <c r="C92" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="14">
+      <c r="E92" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="14">
+      <c r="F92" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="14">
+      <c r="G92" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="14">
+      <c r="H92" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2893,28 +2923,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="14">
+      <c r="B94" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="14">
+      <c r="C94" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="14">
+      <c r="D94" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="14">
+      <c r="E94" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="14">
+      <c r="F94" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="14">
+      <c r="G94" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="14">
+      <c r="H94" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="14">
+      <c r="I94" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3002,10 +3032,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="14" t="s">
+      <c r="J97" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3049,28 +3079,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="14">
+      <c r="A99" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="14">
+      <c r="B99" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="14">
+      <c r="C99" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="14">
+      <c r="E99" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="14">
+      <c r="F99" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="14">
+      <c r="G99" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="14">
+      <c r="H99" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3095,28 +3125,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="14">
+      <c r="B101" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="14">
+      <c r="C101" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="14">
+      <c r="D101" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="14">
+      <c r="E101" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="14">
+      <c r="F101" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="14">
+      <c r="G101" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="14">
+      <c r="H101" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="14">
+      <c r="I101" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3204,10 +3234,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="14" t="s">
+      <c r="J104" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3251,28 +3281,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="14">
+      <c r="A106" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="14">
+      <c r="B106" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="14">
+      <c r="C106" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="14">
+      <c r="E106" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="14">
+      <c r="F106" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="14">
+      <c r="G106" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="14">
+      <c r="H106" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3297,28 +3327,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="14">
+      <c r="B108" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="14">
+      <c r="C108" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="14">
+      <c r="D108" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="14">
+      <c r="E108" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="14">
+      <c r="F108" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="14">
+      <c r="G108" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="14">
+      <c r="H108" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="14">
+      <c r="I108" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3406,10 +3436,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="14" t="s">
+      <c r="J111" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3453,28 +3483,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="14">
+      <c r="A113" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="14">
+      <c r="B113" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="14">
+      <c r="C113" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="14">
+      <c r="E113" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="14">
+      <c r="F113" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="14">
+      <c r="G113" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="14">
+      <c r="H113" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3499,28 +3529,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="14">
+      <c r="B115" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="14">
+      <c r="C115" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="14">
+      <c r="D115" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="14">
+      <c r="E115" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="14">
+      <c r="F115" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="14">
+      <c r="G115" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="14">
+      <c r="H115" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="14">
+      <c r="I115" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3637,10 +3667,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="14" t="s">
+      <c r="J119" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3684,28 +3714,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="14">
+      <c r="A121" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="14">
+      <c r="B121" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="14">
+      <c r="C121" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="14">
+      <c r="E121" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="14">
+      <c r="F121" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="14">
+      <c r="G121" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="14">
+      <c r="H121" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3730,28 +3760,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="14">
+      <c r="B123" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="14">
+      <c r="C123" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="14">
+      <c r="D123" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="14">
+      <c r="E123" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="14">
+      <c r="F123" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="14">
+      <c r="G123" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="14">
+      <c r="H123" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="14">
+      <c r="I123" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3839,10 +3869,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="14" t="s">
+      <c r="J126" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3886,28 +3916,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="14">
+      <c r="A128" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="14">
+      <c r="B128" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="14">
+      <c r="C128" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="14">
+      <c r="E128" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="14">
+      <c r="F128" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="14">
+      <c r="G128" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="14">
+      <c r="H128" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3932,28 +3962,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="14">
+      <c r="B130" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="14">
+      <c r="C130" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="14">
+      <c r="D130" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="14">
+      <c r="E130" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="14">
+      <c r="F130" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="14">
+      <c r="G130" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="14">
+      <c r="H130" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="14">
+      <c r="I130" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4070,10 +4100,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="14" t="s">
+      <c r="J134" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4117,28 +4147,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="14">
+      <c r="A136" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="14">
+      <c r="B136" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="14">
+      <c r="C136" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="14">
+      <c r="E136" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="14">
+      <c r="F136" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="14">
+      <c r="G136" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="14">
+      <c r="H136" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4163,28 +4193,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="14">
+      <c r="B138" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="14">
+      <c r="C138" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="14">
+      <c r="D138" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="14">
+      <c r="E138" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="14">
+      <c r="F138" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="14">
+      <c r="G138" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="14">
+      <c r="H138" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="14">
+      <c r="I138" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4330,10 +4360,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="14" t="s">
+      <c r="J143" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4377,28 +4407,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="14">
+      <c r="A145" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="14">
+      <c r="B145" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="14">
+      <c r="C145" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="14">
+      <c r="E145" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="14">
+      <c r="F145" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="14">
+      <c r="G145" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="14">
+      <c r="H145" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4423,28 +4453,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="14">
+      <c r="B147" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="14">
+      <c r="C147" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="14">
+      <c r="D147" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="14">
+      <c r="E147" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="14">
+      <c r="F147" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="14">
+      <c r="G147" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="14">
+      <c r="H147" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="14">
+      <c r="I147" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4532,10 +4562,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="14" t="s">
+      <c r="J150" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4579,28 +4609,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="14">
+      <c r="A152" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="14">
+      <c r="B152" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="14">
+      <c r="C152" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="14">
+      <c r="E152" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="14">
+      <c r="F152" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="14">
+      <c r="G152" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="14">
+      <c r="H152" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4625,28 +4655,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="14">
+      <c r="B154" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="14">
+      <c r="C154" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="14">
+      <c r="D154" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="14">
+      <c r="E154" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="14">
+      <c r="F154" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="14">
+      <c r="G154" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="14">
+      <c r="H154" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="14">
+      <c r="I154" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4734,10 +4764,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="14" t="s">
+      <c r="J157" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4781,28 +4811,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="14">
+      <c r="A159" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="14">
+      <c r="B159" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="14">
+      <c r="C159" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="14">
+      <c r="E159" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="14">
+      <c r="F159" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="14">
+      <c r="G159" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="14">
+      <c r="H159" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4827,28 +4857,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="14">
+      <c r="B161" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="14">
+      <c r="C161" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="14">
+      <c r="D161" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="14">
+      <c r="E161" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="14">
+      <c r="F161" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="14">
+      <c r="G161" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="14">
+      <c r="H161" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="14">
+      <c r="I161" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4936,10 +4966,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="14" t="s">
+      <c r="J164" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4983,28 +5013,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="14">
+      <c r="A166" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="14">
+      <c r="B166" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="14">
+      <c r="C166" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="14">
+      <c r="E166" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="14">
+      <c r="F166" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="14">
+      <c r="G166" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="14">
+      <c r="H166" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5029,28 +5059,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="14">
+      <c r="B168" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="14">
+      <c r="C168" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="14">
+      <c r="D168" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="14">
+      <c r="E168" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="14">
+      <c r="F168" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="14">
+      <c r="G168" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="14">
+      <c r="H168" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="14">
+      <c r="I168" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5138,10 +5168,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="14" t="s">
+      <c r="J171" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5185,28 +5215,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="14">
+      <c r="A173" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="14">
+      <c r="B173" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="14">
+      <c r="C173" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="14">
+      <c r="E173" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="14">
+      <c r="F173" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="14">
+      <c r="G173" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="14">
+      <c r="H173" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5231,28 +5261,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="14">
+      <c r="B175" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="14">
+      <c r="C175" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="14">
+      <c r="D175" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="14">
+      <c r="E175" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="14">
+      <c r="F175" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="14">
+      <c r="G175" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="14">
+      <c r="H175" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="14">
+      <c r="I175" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5340,10 +5370,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="14" t="s">
+      <c r="J178" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5387,28 +5417,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="14">
+      <c r="A180" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="14">
+      <c r="B180" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="14">
+      <c r="C180" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="14">
+      <c r="E180" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="14">
+      <c r="F180" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="14">
+      <c r="G180" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="14">
+      <c r="H180" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5433,28 +5463,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="14">
+      <c r="B182" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="14">
+      <c r="C182" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="14">
+      <c r="D182" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="14">
+      <c r="E182" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="14">
+      <c r="F182" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="14">
+      <c r="G182" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="14">
+      <c r="H182" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="14">
+      <c r="I182" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5571,10 +5601,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="14" t="s">
+      <c r="J186" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5618,28 +5648,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="14">
+      <c r="A188" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="14">
+      <c r="B188" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="14">
+      <c r="C188" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="14">
+      <c r="E188" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="14">
+      <c r="F188" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="14">
+      <c r="G188" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="14">
+      <c r="H188" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5664,28 +5694,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="14">
+      <c r="B190" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="14">
+      <c r="C190" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="14">
+      <c r="D190" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="14">
+      <c r="E190" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="14">
+      <c r="F190" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="14">
+      <c r="G190" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="14">
+      <c r="H190" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="14">
+      <c r="I190" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5773,10 +5803,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="14" t="s">
+      <c r="J193" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5820,28 +5850,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="14">
+      <c r="A195" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="14">
+      <c r="B195" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="14">
+      <c r="C195" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="14">
+      <c r="E195" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="14">
+      <c r="F195" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="14">
+      <c r="G195" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="14">
+      <c r="H195" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5866,28 +5896,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="14">
+      <c r="B197" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="14">
+      <c r="C197" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="14">
+      <c r="D197" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="14">
+      <c r="E197" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="14">
+      <c r="F197" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="14">
+      <c r="G197" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="14">
+      <c r="H197" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="14">
+      <c r="I197" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5975,10 +6005,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="14" t="s">
+      <c r="J200" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6022,28 +6052,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="14">
+      <c r="A202" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="14">
+      <c r="B202" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="14">
+      <c r="C202" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="14">
+      <c r="E202" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="14">
+      <c r="F202" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="14">
+      <c r="G202" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="14">
+      <c r="H202" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6068,28 +6098,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="14">
+      <c r="B204" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="14">
+      <c r="C204" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="14">
+      <c r="D204" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="14">
+      <c r="E204" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="14">
+      <c r="F204" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="14">
+      <c r="G204" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="14">
+      <c r="H204" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="14">
+      <c r="I204" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6177,10 +6207,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="14" t="s">
+      <c r="J207" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6224,28 +6254,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="14">
+      <c r="A209" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="14">
+      <c r="B209" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="14">
+      <c r="C209" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="14">
+      <c r="E209" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="14">
+      <c r="F209" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="14">
+      <c r="G209" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="14">
+      <c r="H209" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6270,28 +6300,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="14">
+      <c r="B211" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="14">
+      <c r="C211" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="14">
+      <c r="D211" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="14">
+      <c r="E211" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="14">
+      <c r="F211" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="14">
+      <c r="G211" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="14">
+      <c r="H211" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="14">
+      <c r="I211" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6379,10 +6409,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="14" t="s">
+      <c r="J214" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6426,28 +6456,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="14">
+      <c r="A216" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="14">
+      <c r="C216" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="14">
+      <c r="E216" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="14">
+      <c r="F216" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="14">
+      <c r="G216" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="14">
+      <c r="H216" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6472,28 +6502,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="14">
+      <c r="B218" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="14">
+      <c r="C218" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="14">
+      <c r="D218" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="14">
+      <c r="E218" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="14">
+      <c r="F218" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="14">
+      <c r="G218" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="14">
+      <c r="H218" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="14">
+      <c r="I218" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6581,10 +6611,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="14" t="s">
+      <c r="J221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6628,28 +6658,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="14">
+      <c r="A223" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="14">
+      <c r="C223" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="14">
+      <c r="E223" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="14">
+      <c r="F223" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="14">
+      <c r="G223" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="14">
+      <c r="H223" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6674,28 +6704,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="14">
+      <c r="B225" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="14">
+      <c r="C225" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="14">
+      <c r="D225" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="14">
+      <c r="E225" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="14">
+      <c r="F225" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="14">
+      <c r="G225" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="14">
+      <c r="H225" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="14">
+      <c r="I225" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6783,10 +6813,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="14" t="s">
+      <c r="J228" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6830,28 +6860,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="14">
+      <c r="A230" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="14">
+      <c r="B230" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="14">
+      <c r="C230" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="14">
+      <c r="E230" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="14">
+      <c r="F230" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="14">
+      <c r="G230" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="14">
+      <c r="H230" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6876,28 +6906,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="14">
+      <c r="B232" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="14">
+      <c r="C232" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="14">
+      <c r="D232" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="14">
+      <c r="E232" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="14">
+      <c r="F232" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="14">
+      <c r="G232" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="14">
+      <c r="H232" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="14">
+      <c r="I232" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6985,10 +7015,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="14" t="s">
+      <c r="J235" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7032,28 +7062,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="14">
+      <c r="A237" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="14">
+      <c r="B237" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="14">
+      <c r="C237" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="14">
+      <c r="E237" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="14">
+      <c r="F237" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="14">
+      <c r="G237" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="14">
+      <c r="H237" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7078,28 +7108,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="14">
+      <c r="B239" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="14">
+      <c r="C239" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="14">
+      <c r="D239" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="14">
+      <c r="E239" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="14">
+      <c r="F239" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="14">
+      <c r="G239" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="14">
+      <c r="H239" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="14">
+      <c r="I239" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7187,10 +7217,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="14" t="s">
+      <c r="J242" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7234,28 +7264,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="14">
+      <c r="A244" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="14">
+      <c r="B244" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="14">
+      <c r="C244" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="14">
+      <c r="E244" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="14">
+      <c r="F244" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="14">
+      <c r="G244" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="14">
+      <c r="H244" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7280,28 +7310,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="14">
+      <c r="B246" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="14">
+      <c r="C246" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="14">
+      <c r="D246" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="14">
+      <c r="E246" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="14">
+      <c r="F246" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="14">
+      <c r="G246" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="14">
+      <c r="H246" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="14">
+      <c r="I246" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7389,10 +7419,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="14" t="s">
+      <c r="J249" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7436,28 +7466,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="14">
+      <c r="A251" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="14">
+      <c r="B251" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="14">
+      <c r="C251" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="14">
+      <c r="E251" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="14">
+      <c r="F251" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="14">
+      <c r="G251" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="14">
+      <c r="H251" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7482,28 +7512,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="14">
+      <c r="B253" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="14">
+      <c r="C253" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="14">
+      <c r="D253" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="14">
+      <c r="E253" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="14">
+      <c r="F253" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="14">
+      <c r="G253" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="14">
+      <c r="H253" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="14">
+      <c r="I253" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7591,10 +7621,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="14" t="s">
+      <c r="J256" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7638,28 +7668,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="14">
+      <c r="A258" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="14">
+      <c r="B258" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="14">
+      <c r="C258" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="14">
+      <c r="E258" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="14">
+      <c r="F258" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="14">
+      <c r="G258" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="14">
+      <c r="H258" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7684,28 +7714,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="14">
+      <c r="B260" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="14">
+      <c r="C260" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="14">
+      <c r="D260" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="14">
+      <c r="E260" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="14">
+      <c r="F260" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="14">
+      <c r="G260" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="14">
+      <c r="H260" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="14">
+      <c r="I260" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7793,10 +7823,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="14" t="s">
+      <c r="J263" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7840,28 +7870,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="14">
+      <c r="A265" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="14">
+      <c r="B265" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="14">
+      <c r="C265" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="14">
+      <c r="E265" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="14">
+      <c r="F265" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="14">
+      <c r="G265" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="14">
+      <c r="H265" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7886,28 +7916,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="14">
+      <c r="B267" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="14">
+      <c r="C267" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="14">
+      <c r="D267" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="14">
+      <c r="E267" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="14">
+      <c r="F267" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="14">
+      <c r="G267" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="14">
+      <c r="H267" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="14">
+      <c r="I267" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7995,10 +8025,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="14" t="s">
+      <c r="J270" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -8042,28 +8072,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="14">
+      <c r="A272" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="14">
+      <c r="B272" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="14">
+      <c r="C272" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="14">
+      <c r="E272" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="14">
+      <c r="F272" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="14">
+      <c r="G272" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="14">
+      <c r="H272" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8088,28 +8118,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="14">
+      <c r="B274" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="14">
+      <c r="C274" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="14">
+      <c r="D274" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="14">
+      <c r="E274" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="14">
+      <c r="F274" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="14">
+      <c r="G274" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="14">
+      <c r="H274" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="14">
+      <c r="I274" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8197,10 +8227,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="14" t="s">
+      <c r="J277" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8244,28 +8274,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="14">
+      <c r="A279" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="14">
+      <c r="B279" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="14">
+      <c r="C279" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="14">
+      <c r="E279" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="14">
+      <c r="F279" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="14">
+      <c r="G279" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="14">
+      <c r="H279" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8290,28 +8320,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="14">
+      <c r="B281" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="14">
+      <c r="C281" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="14">
+      <c r="D281" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="14">
+      <c r="E281" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="14">
+      <c r="F281" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="14">
+      <c r="G281" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="14">
+      <c r="H281" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="14">
+      <c r="I281" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8399,10 +8429,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="14" t="s">
+      <c r="J284" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8446,28 +8476,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="14">
+      <c r="A286" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="14">
+      <c r="B286" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="14">
+      <c r="C286" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="14">
+      <c r="E286" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="14">
+      <c r="F286" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="14">
+      <c r="G286" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="14">
+      <c r="H286" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8492,28 +8522,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="14">
+      <c r="B288" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="14">
+      <c r="C288" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="14">
+      <c r="D288" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="14">
+      <c r="E288" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="14">
+      <c r="F288" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="14">
+      <c r="G288" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="14">
+      <c r="H288" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="14">
+      <c r="I288" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8601,10 +8631,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="14" t="s">
+      <c r="J291" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8648,28 +8678,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="14">
+      <c r="A293" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="14">
+      <c r="B293" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="14">
+      <c r="C293" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="14">
+      <c r="E293" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="14">
+      <c r="F293" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="14">
+      <c r="G293" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="14">
+      <c r="H293" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8694,28 +8724,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="14">
+      <c r="B295" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="14">
+      <c r="C295" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="14">
+      <c r="D295" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="14">
+      <c r="E295" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="14">
+      <c r="F295" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="14">
+      <c r="G295" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="14">
+      <c r="H295" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="14">
+      <c r="I295" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8803,10 +8833,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="14" t="s">
+      <c r="J298" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8850,28 +8880,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="14">
+      <c r="A300" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="14">
+      <c r="B300" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="14">
+      <c r="C300" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="14">
+      <c r="E300" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="14">
+      <c r="F300" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="14">
+      <c r="G300" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="14">
+      <c r="H300" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8896,28 +8926,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="14">
+      <c r="B302" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="14">
+      <c r="C302" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="14">
+      <c r="D302" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="14">
+      <c r="E302" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="14">
+      <c r="F302" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="14">
+      <c r="G302" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="14">
+      <c r="H302" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="14">
+      <c r="I302" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9005,10 +9035,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="14" t="s">
+      <c r="J305" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9052,28 +9082,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="14">
+      <c r="A307" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="14">
+      <c r="B307" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="14">
+      <c r="C307" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="14">
+      <c r="E307" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="14">
+      <c r="F307" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="14">
+      <c r="G307" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="14">
+      <c r="H307" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9098,28 +9128,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="14">
+      <c r="B309" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="14">
+      <c r="C309" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="14">
+      <c r="D309" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="14">
+      <c r="E309" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="14">
+      <c r="F309" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="14">
+      <c r="G309" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="14">
+      <c r="H309" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="14">
+      <c r="I309" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9207,10 +9237,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="14" t="s">
+      <c r="J312" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9254,28 +9284,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="14">
+      <c r="A314" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="14">
+      <c r="B314" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="14">
+      <c r="C314" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="14">
+      <c r="E314" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="14">
+      <c r="F314" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="14">
+      <c r="G314" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="14">
+      <c r="H314" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9300,28 +9330,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="14">
+      <c r="B316" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="14">
+      <c r="C316" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="14">
+      <c r="D316" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="14">
+      <c r="E316" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="14">
+      <c r="F316" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="14">
+      <c r="G316" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="14">
+      <c r="H316" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="14">
+      <c r="I316" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9409,10 +9439,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="14" t="s">
+      <c r="J319" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9456,28 +9486,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="14">
+      <c r="A321" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="14">
+      <c r="B321" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="14">
+      <c r="C321" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="14">
+      <c r="E321" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="14">
+      <c r="F321" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="14">
+      <c r="G321" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="14">
+      <c r="H321" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9502,28 +9532,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="14">
+      <c r="B323" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="14">
+      <c r="C323" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="14">
+      <c r="D323" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="14">
+      <c r="E323" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="14">
+      <c r="F323" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="14">
+      <c r="G323" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="14">
+      <c r="H323" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="14">
+      <c r="I323" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9611,10 +9641,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="14" t="s">
+      <c r="J326" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
